--- a/Slots.xlsx
+++ b/Slots.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavithra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebApp\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Slots1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="pubhtml?gid_384633784_single_true" localSheetId="0">Sheet1!$G$1:$G$2</definedName>
-    <definedName name="pubhtml?gid_384633784_single_true_1" localSheetId="0">Sheet1!$H$1:$H$2</definedName>
-    <definedName name="pubhtml?gid_384633784_single_true_2" localSheetId="0">Sheet1!$J$1:$J$2</definedName>
+    <definedName name="pubhtml?gid_384633784_single_true" localSheetId="0">Slots1!$G$1:$G$2</definedName>
+    <definedName name="pubhtml?gid_384633784_single_true_1" localSheetId="0">Slots1!$H$1:$H$2</definedName>
+    <definedName name="pubhtml?gid_384633784_single_true_2" localSheetId="0">Slots1!$J$1:$J$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="45">
   <si>
     <t>Start Time</t>
   </si>
@@ -54,16 +54,7 @@
     <t>Support Lead</t>
   </si>
   <si>
-    <t>Will start at 6 PM</t>
-  </si>
-  <si>
-    <t>Will Start at 6 PM</t>
-  </si>
-  <si>
     <t>Vivekananda Shakha</t>
-  </si>
-  <si>
-    <t>Abhinav S</t>
   </si>
   <si>
     <t>Chanakya Shakha</t>
@@ -342,15 +333,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pubhtml?gid=384633784&amp;single=true" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pubhtml?gid=384633784&amp;single=true_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pubhtml?gid=384633784&amp;single=true_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pubhtml?gid=384633784&amp;single=true_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pubhtml?gid=384633784&amp;single=true_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pubhtml?gid=384633784&amp;single=true" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,19 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -651,21 +643,21 @@
         <v>46059.666666666664</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12">
         <v>46059.677083333336</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -673,21 +665,21 @@
         <v>46059.687500057873</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12">
         <v>46059.69791678241</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -695,21 +687,21 @@
         <v>46059.708333506947</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12">
         <v>46059.718750231485</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -717,21 +709,21 @@
         <v>46059.729166956022</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12">
         <v>46059.739583680559</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -739,10 +731,10 @@
         <v>46059.750000405096</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -750,10 +742,10 @@
         <v>46059.760417129626</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -761,28 +753,32 @@
         <v>46059.770833854163</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12">
         <v>46059.781250578701</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12">
         <v>46059.791667303238</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -790,7 +786,7 @@
         <v>46059.802084027775</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6"/>
     </row>
@@ -799,10 +795,10 @@
         <v>46059.812500752312</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -810,7 +806,7 @@
         <v>46059.822917476849</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="5"/>
     </row>
@@ -819,7 +815,7 @@
         <v>46059.833334201387</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6"/>
     </row>
@@ -828,10 +824,10 @@
         <v>46059.843750925924</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -839,7 +835,7 @@
         <v>46059.854167650461</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -848,10 +844,10 @@
         <v>46059.864584374998</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -859,10 +855,10 @@
         <v>46059.875001099535</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -870,7 +866,7 @@
         <v>46059.885417824073</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -879,7 +875,7 @@
         <v>46059.89583454861</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7"/>
     </row>
@@ -888,7 +884,7 @@
         <v>46059.906251273147</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="8"/>
     </row>
@@ -897,7 +893,7 @@
         <v>46059.916667997684</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7"/>
     </row>
@@ -906,7 +902,7 @@
         <v>46059.927084722221</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" s="8"/>
     </row>
@@ -915,7 +911,7 @@
         <v>46059.937501446759</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" s="7"/>
     </row>
@@ -924,7 +920,7 @@
         <v>46059.947918171296</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" s="8"/>
     </row>
@@ -933,7 +929,7 @@
         <v>46059.958334895833</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="7"/>
     </row>
@@ -942,7 +938,7 @@
         <v>46059.96875162037</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" s="8"/>
     </row>
@@ -951,7 +947,7 @@
         <v>46059.979168344908</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32" s="7"/>
     </row>
@@ -960,7 +956,7 @@
         <v>46059.989585069445</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="8"/>
     </row>
@@ -969,7 +965,7 @@
         <v>46060.000001793982</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" s="7"/>
     </row>
@@ -978,7 +974,7 @@
         <v>46060.010418518519</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35" s="8"/>
     </row>
@@ -987,7 +983,7 @@
         <v>46060.020835243056</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" s="7"/>
     </row>
@@ -996,7 +992,7 @@
         <v>46060.031251967594</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" s="8"/>
     </row>
@@ -1005,7 +1001,7 @@
         <v>46060.041668692131</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38" s="7"/>
     </row>
@@ -1014,7 +1010,7 @@
         <v>46060.052085416668</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4"/>
     </row>
@@ -1023,10 +1019,10 @@
         <v>46060.062502141205</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1034,10 +1030,10 @@
         <v>46060.072918865742</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1045,10 +1041,10 @@
         <v>46060.08333559028</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1056,10 +1052,10 @@
         <v>46060.093752314817</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1067,10 +1063,10 @@
         <v>46060.104169039354</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1078,10 +1074,10 @@
         <v>46060.114585763891</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1089,10 +1085,10 @@
         <v>46060.125002488428</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1100,10 +1096,10 @@
         <v>46060.135419212966</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1111,10 +1107,10 @@
         <v>46060.145835937503</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1122,10 +1118,10 @@
         <v>46060.15625266204</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1133,10 +1129,10 @@
         <v>46060.166669386577</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1144,10 +1140,10 @@
         <v>46060.177086111114</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1155,10 +1151,10 @@
         <v>46060.187502835652</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1166,10 +1162,10 @@
         <v>46060.197919560182</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1177,10 +1173,10 @@
         <v>46060.208336284719</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1188,10 +1184,10 @@
         <v>46060.218753009256</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1199,10 +1195,10 @@
         <v>46060.229169733793</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1210,10 +1206,10 @@
         <v>46060.23958645833</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1221,10 +1217,10 @@
         <v>46060.250003182868</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1232,10 +1228,10 @@
         <v>46060.260419907405</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1243,10 +1239,10 @@
         <v>46060.270836631942</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1254,10 +1250,10 @@
         <v>46060.281253356479</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1265,10 +1261,10 @@
         <v>46060.291670081016</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1276,10 +1272,10 @@
         <v>46060.302086805554</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1287,10 +1283,10 @@
         <v>46060.312503530091</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1298,10 +1294,10 @@
         <v>46060.322920254628</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1309,10 +1305,10 @@
         <v>46060.333336979165</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1320,10 +1316,10 @@
         <v>46060.343753703703</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1331,10 +1327,10 @@
         <v>46060.35417042824</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1342,10 +1338,10 @@
         <v>46060.364587152777</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1353,10 +1349,10 @@
         <v>46060.375003877314</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1364,10 +1360,10 @@
         <v>46060.385420601851</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1375,10 +1371,10 @@
         <v>46060.395837326389</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1386,10 +1382,10 @@
         <v>46060.406254050926</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1397,10 +1393,10 @@
         <v>46060.416670775463</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1408,10 +1404,10 @@
         <v>46060.4270875</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1419,10 +1415,10 @@
         <v>46060.437504224537</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1430,10 +1426,10 @@
         <v>46060.447920949075</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1441,10 +1437,10 @@
         <v>46060.458337673612</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1452,10 +1448,10 @@
         <v>46060.468754398149</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1463,10 +1459,10 @@
         <v>46060.479171122686</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1474,10 +1470,10 @@
         <v>46060.489587847223</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1485,10 +1481,10 @@
         <v>46060.500004571761</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1496,10 +1492,10 @@
         <v>46060.510421296298</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1507,10 +1503,10 @@
         <v>46060.520838020835</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1518,10 +1514,10 @@
         <v>46060.531254745372</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1529,39 +1525,363 @@
         <v>46060.541671469909</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="12">
         <v>46060.552088194447</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="12">
         <v>46060.562504918984</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="12">
         <v>46060.572921643521</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="12">
         <v>46060.583338368058</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="12">
+        <v>46060.593755092596</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="12">
+        <v>46060.604171817133</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="12">
+        <v>46060.61458854167</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="12">
+        <v>46060.625005266207</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="12">
+        <v>46060.635421990744</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="12">
+        <v>46060.645838715274</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="12">
+        <v>46060.656255439812</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="12">
+        <v>46060.666672164349</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="12">
+        <v>46060.677088888886</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="12">
+        <v>46060.687505613423</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="12">
+        <v>46060.69792233796</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="12">
+        <v>46060.708339062498</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="12">
+        <v>46060.718755787035</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="12">
+        <v>46060.729172511572</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="12">
+        <v>46060.739589236109</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="12">
+        <v>46060.750005960646</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="12">
+        <v>46060.760422627318</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="12">
+        <v>46060.770839351855</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="12">
+        <v>46060.781256076392</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="12">
+        <v>46060.79167280093</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="12">
+        <v>46060.802089525459</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="12">
+        <v>46060.812506249997</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="12">
+        <v>46060.822922974534</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="12">
+        <v>46060.833339699071</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="12">
+        <v>46060.843756423608</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="12">
+        <v>46060.854173148145</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="12">
+        <v>46060.864589872683</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="12">
+        <v>46060.87500659722</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
